--- a/cars_data.xlsx
+++ b/cars_data.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
